--- a/Underfloor Heating/UFH.xlsx
+++ b/Underfloor Heating/UFH.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\ChadHouse\Underfloor Heating\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0BA78106-EC2C-4FDB-A936-841D1FF9A9C2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1365" yWindow="0" windowWidth="28800" windowHeight="11685"/>
+    <workbookView xWindow="1370" yWindow="0" windowWidth="28800" windowHeight="11690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -71,7 +72,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -362,15 +363,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -385,6 +377,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -664,48 +665,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="11" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="13"/>
-    </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="E1" s="18"/>
+      <c r="F1" s="19"/>
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>5.5750000000000002</v>
       </c>
@@ -726,7 +727,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>12.3</v>
       </c>
@@ -746,50 +747,50 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="8">
-        <f>A3*A4</f>
+        <f t="shared" ref="A5:F5" si="0">A3*A4</f>
         <v>68.572500000000005</v>
       </c>
       <c r="B5" s="9">
-        <f>B3*B4</f>
+        <f t="shared" si="0"/>
         <v>48.708000000000006</v>
       </c>
       <c r="C5" s="10">
-        <f>C3*C4</f>
+        <f t="shared" si="0"/>
         <v>46.550000000000004</v>
       </c>
       <c r="D5" s="8">
-        <f>D3*D4</f>
+        <f t="shared" si="0"/>
         <v>48.708000000000006</v>
       </c>
       <c r="E5" s="9">
-        <f>E3*E4</f>
+        <f t="shared" si="0"/>
         <v>77.804999999999993</v>
       </c>
       <c r="F5" s="10">
-        <f>F3*F4</f>
+        <f t="shared" si="0"/>
         <v>10.050000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C6">
         <f>SUM(A5:C5)</f>
         <v>163.83050000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
+    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="19">
+    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="16">
         <f>SUM(A5:F5)</f>
         <v>300.39350000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -797,17 +798,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>13</v>
       </c>

--- a/Underfloor Heating/UFH.xlsx
+++ b/Underfloor Heating/UFH.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\ChadHouse\Underfloor Heating\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0BA78106-EC2C-4FDB-A936-841D1FF9A9C2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1370" yWindow="0" windowWidth="28800" windowHeight="11690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4095" yWindow="0" windowWidth="28800" windowHeight="11685"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>LGF</t>
   </si>
@@ -67,19 +66,49 @@
   </si>
   <si>
     <t>info@bmdinsulation.com</t>
+  </si>
+  <si>
+    <t>m2</t>
+  </si>
+  <si>
+    <t>Delivery</t>
+  </si>
+  <si>
+    <t>per unit</t>
+  </si>
+  <si>
+    <t>units</t>
+  </si>
+  <si>
+    <t>thickness</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>inc VAT</t>
+  </si>
+  <si>
+    <t>Screed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -90,7 +119,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -345,11 +374,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -386,6 +430,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -665,16 +716,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="16" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -686,7 +737,7 @@
       <c r="E1" s="18"/>
       <c r="F1" s="19"/>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" s="1" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>2</v>
       </c>
@@ -706,7 +757,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>5.5750000000000002</v>
       </c>
@@ -727,7 +778,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>12.3</v>
       </c>
@@ -747,7 +798,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <f t="shared" ref="A5:F5" si="0">A3*A4</f>
         <v>68.572500000000005</v>
@@ -773,24 +824,24 @@
         <v>10.050000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6">
         <f>SUM(A5:C5)</f>
         <v>163.83050000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16">
         <f>SUM(A5:F5)</f>
         <v>300.39350000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -798,26 +849,176 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>13</v>
       </c>
+      <c r="J14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J15">
+        <v>260</v>
+      </c>
+      <c r="K15">
+        <v>10</v>
+      </c>
+      <c r="L15">
+        <f>J15*K15</f>
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1.2</v>
+      </c>
+      <c r="N17" s="22">
+        <v>4022</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <f>A16*A17</f>
+        <v>2.88</v>
+      </c>
+      <c r="N18" s="21">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D19" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="20"/>
+      <c r="M19">
+        <f>E26</f>
+        <v>3539.4</v>
+      </c>
+      <c r="N19">
+        <f>SUM(N17:N18)</f>
+        <v>5692</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>70</v>
+      </c>
+      <c r="B21">
+        <f>ROUNDUP(A21/$A$18,0)</f>
+        <v>25</v>
+      </c>
+      <c r="C21">
+        <v>20</v>
+      </c>
+      <c r="D21">
+        <v>11.5</v>
+      </c>
+      <c r="E21">
+        <f>B21*D21</f>
+        <v>287.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>160</v>
+      </c>
+      <c r="B22">
+        <f t="shared" ref="B22:B23" si="1">ROUNDUP(A22/$A$18,0)</f>
+        <v>56</v>
+      </c>
+      <c r="C22">
+        <v>100</v>
+      </c>
+      <c r="D22">
+        <v>37</v>
+      </c>
+      <c r="E22">
+        <f t="shared" ref="E22:E23" si="2">B22*D22</f>
+        <v>2072</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>30</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="C23">
+        <v>140</v>
+      </c>
+      <c r="D23">
+        <v>50</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="2"/>
+        <v>550</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <f>SUM(E21:E24)</f>
+        <v>2949.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <f>E25*1.2</f>
+        <v>3539.4</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
+    <mergeCell ref="D19:E19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Underfloor Heating/UFH.xlsx
+++ b/Underfloor Heating/UFH.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4095" yWindow="0" windowWidth="28800" windowHeight="11685"/>
+    <workbookView xWindow="5460" yWindow="0" windowWidth="28800" windowHeight="11685"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>LGF</t>
   </si>
@@ -77,12 +77,6 @@
     <t>per unit</t>
   </si>
   <si>
-    <t>units</t>
-  </si>
-  <si>
-    <t>thickness</t>
-  </si>
-  <si>
     <t>total</t>
   </si>
   <si>
@@ -90,13 +84,22 @@
   </si>
   <si>
     <t>Screed</t>
+  </si>
+  <si>
+    <t>git p</t>
+  </si>
+  <si>
+    <t>Number of Sheets</t>
+  </si>
+  <si>
+    <t>Sheet Thickness</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,14 +113,28 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="19">
     <border>
@@ -393,7 +410,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -421,6 +438,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -433,10 +454,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -717,25 +737,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="27.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="17" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="18"/>
-      <c r="F1" s="19"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="21"/>
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
@@ -864,7 +887,7 @@
         <v>13</v>
       </c>
       <c r="J14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -888,7 +911,7 @@
       <c r="A17">
         <v>1.2</v>
       </c>
-      <c r="N17" s="22">
+      <c r="N17" s="18">
         <v>4022</v>
       </c>
     </row>
@@ -897,18 +920,17 @@
         <f>A16*A17</f>
         <v>2.88</v>
       </c>
-      <c r="N18" s="21">
+      <c r="N18" s="17">
         <v>1670</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="20"/>
-      <c r="M19">
-        <f>E26</f>
-        <v>3539.4</v>
+      <c r="E19" s="22"/>
+      <c r="M19" t="s">
+        <v>20</v>
       </c>
       <c r="N19">
         <f>SUM(N17:N18)</f>
@@ -916,99 +938,113 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2">
         <v>70</v>
       </c>
-      <c r="B21">
-        <f>ROUNDUP(A21/$A$18,0)</f>
+      <c r="C21" s="2">
+        <f>ROUNDUP(B21/$A$18,0)</f>
         <v>25</v>
       </c>
-      <c r="C21">
-        <v>20</v>
-      </c>
-      <c r="D21">
+      <c r="D21" s="2">
         <v>11.5</v>
       </c>
-      <c r="E21">
-        <f>B21*D21</f>
+      <c r="E21" s="2">
+        <f>C21*D21</f>
         <v>287.5</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="2">
+        <v>40</v>
+      </c>
+      <c r="B22" s="2">
+        <v>30</v>
+      </c>
+      <c r="C22" s="2">
+        <f>ROUNDUP(B22/$A$18,0)</f>
+        <v>11</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>100</v>
+      </c>
+      <c r="B23" s="2">
         <v>160</v>
       </c>
-      <c r="B22">
-        <f t="shared" ref="B22:B23" si="1">ROUNDUP(A22/$A$18,0)</f>
+      <c r="C23" s="2">
+        <f t="shared" ref="C23:C24" si="1">ROUNDUP(B23/$A$18,0)</f>
         <v>56</v>
       </c>
-      <c r="C22">
-        <v>100</v>
-      </c>
-      <c r="D22">
+      <c r="D23" s="2">
         <v>37</v>
       </c>
-      <c r="E22">
-        <f t="shared" ref="E22:E23" si="2">B22*D22</f>
+      <c r="E23" s="2">
+        <f>C23*D23</f>
         <v>2072</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>140</v>
+      </c>
+      <c r="B24" s="2">
         <v>30</v>
       </c>
-      <c r="B23">
+      <c r="C24" s="2">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="C23">
-        <v>140</v>
-      </c>
-      <c r="D23">
+      <c r="D24" s="2">
         <v>50</v>
       </c>
-      <c r="E23">
-        <f t="shared" si="2"/>
+      <c r="E24" s="2">
+        <f>C24*D24</f>
         <v>550</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>15</v>
       </c>
-      <c r="E24">
+      <c r="E25">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E25">
-        <f>SUM(E21:E24)</f>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <f>SUM(E21:E25)</f>
         <v>2949.5</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26">
-        <f>E25*1.2</f>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27">
+        <f>E26*1.2</f>
         <v>3539.4</v>
       </c>
     </row>

--- a/Underfloor Heating/UFH.xlsx
+++ b/Underfloor Heating/UFH.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\ChadHouse\Underfloor Heating\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E770D44F-E363-438B-A975-B10D2FD430C9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5460" yWindow="0" windowWidth="28800" windowHeight="11685"/>
+    <workbookView xWindow="5460" yWindow="0" windowWidth="28800" windowHeight="11690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>LGF</t>
   </si>
@@ -93,12 +94,15 @@
   </si>
   <si>
     <t>Sheet Thickness</t>
+  </si>
+  <si>
+    <t>Watts per m2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -442,6 +446,9 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -452,9 +459,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -736,31 +740,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="27.140625" customWidth="1"/>
+    <col min="3" max="3" width="27.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="19" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="21"/>
-    </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E1" s="21"/>
+      <c r="F1" s="22"/>
+    </row>
+    <row r="2" spans="1:12" s="1" customFormat="1" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="11" t="s">
         <v>2</v>
       </c>
@@ -780,7 +784,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>5.5750000000000002</v>
       </c>
@@ -801,7 +805,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>12.3</v>
       </c>
@@ -821,7 +825,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="8">
         <f t="shared" ref="A5:F5" si="0">A3*A4</f>
         <v>68.572500000000005</v>
@@ -846,25 +850,38 @@
         <f t="shared" si="0"/>
         <v>10.050000000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C6">
         <f>SUM(A5:C5)</f>
         <v>163.83050000000003</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I6">
+        <v>60</v>
+      </c>
+      <c r="J6">
+        <v>260</v>
+      </c>
+      <c r="K6">
+        <f>I6*J6</f>
+        <v>15600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="16">
         <f>SUM(A5:F5)</f>
         <v>300.39350000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -872,17 +889,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>13</v>
       </c>
@@ -890,7 +907,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="J15">
         <v>260</v>
       </c>
@@ -902,12 +919,12 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2.4</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>1.2</v>
       </c>
@@ -915,7 +932,7 @@
         <v>4022</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18">
         <f>A16*A17</f>
         <v>2.88</v>
@@ -924,11 +941,11 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D19" s="22" t="s">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="D19" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="22"/>
+      <c r="E19" s="23"/>
       <c r="M19" t="s">
         <v>20</v>
       </c>
@@ -937,14 +954,14 @@
         <v>5692</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="23" t="s">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A20" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="19" t="s">
         <v>21</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -954,7 +971,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -973,7 +990,7 @@
         <v>287.5</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>40</v>
       </c>
@@ -987,7 +1004,7 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>100</v>
       </c>
@@ -1006,7 +1023,7 @@
         <v>2072</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>140</v>
       </c>
@@ -1025,7 +1042,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -1033,13 +1050,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="E26">
         <f>SUM(E21:E25)</f>
         <v>2949.5</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D27" t="s">
         <v>18</v>
       </c>
